--- a/papers/coopv2/ICSOC Submission/matlab-charts/coop_p.xlsx
+++ b/papers/coopv2/ICSOC Submission/matlab-charts/coop_p.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="27795" windowHeight="12840"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="23136" windowHeight="12840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -68,7 +68,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-CA"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -101,151 +101,151 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62765343293400011</c:v>
+                  <c:v>0.64020650159268011</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70611011205074992</c:v>
+                  <c:v>0.72023231429176493</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.7531841195208</c:v>
+                  <c:v>0.768247801911216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.78456679116749983</c:v>
+                  <c:v>0.80025812699084986</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80698298520085698</c:v>
+                  <c:v>0.82312264490487419</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.82379513072587496</c:v>
+                  <c:v>0.84027103334039244</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.83687124391199985</c:v>
+                  <c:v>0.85360866879023989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.84733213446090005</c:v>
+                  <c:v>0.86427877715011803</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.85589104490999979</c:v>
+                  <c:v>0.87300886580819981</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.86302347028425019</c:v>
+                  <c:v>0.88028393968993524</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.86905859944707686</c:v>
+                  <c:v>0.88643977143601838</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.87423156730092888</c:v>
+                  <c:v>0.89171619864694751</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.87871480610759956</c:v>
+                  <c:v>0.89628910222975156</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88263764006343748</c:v>
+                  <c:v>0.90029039286470625</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.88609896414211731</c:v>
+                  <c:v>0.90382094342495967</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.88917569665649954</c:v>
+                  <c:v>0.90695921058962958</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.89192856259042141</c:v>
+                  <c:v>0.90976713384222985</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.89440614193095003</c:v>
+                  <c:v>0.9122942647695691</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.89664776133428525</c:v>
+                  <c:v>0.91458071656097095</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.89868559715550056</c:v>
+                  <c:v>0.9166593090986106</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.90054622986182631</c:v>
+                  <c:v>0.91855715445906283</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.90225180984262465</c:v>
+                  <c:v>0.92029684603947715</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.90382094342495989</c:v>
+                  <c:v>0.92189736229345909</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90526937442403888</c:v>
+                  <c:v>0.92337476191251966</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90661051423799999</c:v>
+                  <c:v>0.92474272452275996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.90785585835096394</c:v>
+                  <c:v>0.92601297551798323</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.90901531666303415</c:v>
+                  <c:v>0.92719562299629488</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.91009747775430017</c:v>
+                  <c:v>0.92829942730938619</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.91110982200096768</c:v>
+                  <c:v>0.92933201844098701</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.91205889473221879</c:v>
+                  <c:v>0.93030007262686321</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.91295044790400015</c:v>
+                  <c:v>0.93120945686208012</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.91378955677155904</c:v>
+                  <c:v>0.93206534790699025</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.91458071656097095</c:v>
+                  <c:v>0.93287233089219035</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.91532792302874977</c:v>
+                  <c:v>0.93363448148932482</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.91603473995772977</c:v>
+                  <c:v>0.93435543475688443</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.91670435599571076</c:v>
+                  <c:v>0.93503844311562501</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.91733963274969188</c:v>
+                  <c:v>0.93568642540468572</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.9179431456659749</c:v>
+                  <c:v>0.93630200857929446</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.9185172189278048</c:v>
+                  <c:v>0.93688756330636092</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.91906395536764274</c:v>
+                  <c:v>0.93744523447499561</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.91958526220562831</c:v>
+                  <c:v>0.93797696744974091</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.92008287327824956</c:v>
+                  <c:v>0.93848453074381455</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.92055836830320015</c:v>
+                  <c:v>0.93896953566926422</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.92101318963141265</c:v>
+                  <c:v>0.93943345342404094</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.92144865686055299</c:v>
+                  <c:v>0.93987762999776403</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.92186597962181283</c:v>
+                  <c:v>0.94030329921424904</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.92226626880097973</c:v>
+                  <c:v>0.94071159417699934</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.92265054641297994</c:v>
+                  <c:v>0.94110355734123952</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.92265996121447413</c:v>
+                  <c:v>0.94111316043876359</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -429,11 +429,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40051456"/>
-        <c:axId val="40053376"/>
+        <c:axId val="41046784"/>
+        <c:axId val="41048320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40051456"/>
+        <c:axId val="41046784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40053376"/>
+        <c:crossAx val="41048320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -450,7 +450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40053376"/>
+        <c:axId val="41048320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -461,7 +461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40051456"/>
+        <c:crossAx val="41046784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -808,12 +808,12 @@
   <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection activeCell="F2" sqref="F2:F50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3">
         <f>(D1/2)+0.5</f>
         <v>0.5</v>
@@ -824,9 +824,9 @@
       <c r="D1" s="3"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
-        <v>0.62765343293400011</v>
+        <v>0.64020650159268011</v>
       </c>
       <c r="B2" s="3">
         <v>0.4</v>
@@ -836,9 +836,9 @@
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>0.70611011205074992</v>
+        <v>0.72023231429176493</v>
       </c>
       <c r="B3" s="3">
         <v>0.33333333333333298</v>
@@ -849,9 +849,9 @@
       <c r="F3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>0.7531841195208</v>
+        <v>0.768247801911216</v>
       </c>
       <c r="B4" s="3">
         <v>0.28571428571428598</v>
@@ -862,9 +862,9 @@
       <c r="F4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>0.78456679116749983</v>
+        <v>0.80025812699084986</v>
       </c>
       <c r="B5" s="3">
         <v>0.25</v>
@@ -875,9 +875,9 @@
       <c r="F5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>0.80698298520085698</v>
+        <v>0.82312264490487419</v>
       </c>
       <c r="B6" s="3">
         <v>0.22222222222222199</v>
@@ -888,9 +888,9 @@
       <c r="F6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>0.82379513072587496</v>
+        <v>0.84027103334039244</v>
       </c>
       <c r="B7" s="3">
         <v>0.2</v>
@@ -901,9 +901,9 @@
       <c r="F7" s="3"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>0.83687124391199985</v>
+        <v>0.85360866879023989</v>
       </c>
       <c r="B8" s="3">
         <v>0.18181818181818199</v>
@@ -914,9 +914,9 @@
       <c r="F8" s="3"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>0.84733213446090005</v>
+        <v>0.86427877715011803</v>
       </c>
       <c r="B9" s="3">
         <v>0.16666666666666699</v>
@@ -927,9 +927,9 @@
       <c r="F9" s="3"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>0.85589104490999979</v>
+        <v>0.87300886580819981</v>
       </c>
       <c r="B10" s="3">
         <v>0.15384615384615399</v>
@@ -940,9 +940,9 @@
       <c r="F10" s="3"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>0.86302347028425019</v>
+        <v>0.88028393968993524</v>
       </c>
       <c r="B11" s="3">
         <v>0.14285714285714299</v>
@@ -953,9 +953,9 @@
       <c r="F11" s="3"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>0.86905859944707686</v>
+        <v>0.88643977143601838</v>
       </c>
       <c r="B12" s="3">
         <v>0.133333333333333</v>
@@ -966,9 +966,9 @@
       <c r="F12" s="3"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>0.87423156730092888</v>
+        <v>0.89171619864694751</v>
       </c>
       <c r="B13" s="3">
         <v>0.125</v>
@@ -979,9 +979,9 @@
       <c r="F13" s="3"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>0.87871480610759956</v>
+        <v>0.89628910222975156</v>
       </c>
       <c r="B14" s="3">
         <v>0.11764705882352899</v>
@@ -992,9 +992,9 @@
       <c r="F14" s="3"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
-        <v>0.88263764006343748</v>
+        <v>0.90029039286470625</v>
       </c>
       <c r="B15" s="3">
         <v>0.11111111111111099</v>
@@ -1005,9 +1005,9 @@
       <c r="F15" s="3"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
-        <v>0.88609896414211731</v>
+        <v>0.90382094342495967</v>
       </c>
       <c r="B16" s="3">
         <v>0.105263157894737</v>
@@ -1018,9 +1018,9 @@
       <c r="F16" s="3"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
-        <v>0.88917569665649954</v>
+        <v>0.90695921058962958</v>
       </c>
       <c r="B17" s="3">
         <v>0.1</v>
@@ -1031,9 +1031,9 @@
       <c r="F17" s="3"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
-        <v>0.89192856259042141</v>
+        <v>0.90976713384222985</v>
       </c>
       <c r="B18" s="3">
         <v>9.5238095238095205E-2</v>
@@ -1044,9 +1044,9 @@
       <c r="F18" s="3"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>0.89440614193095003</v>
+        <v>0.9122942647695691</v>
       </c>
       <c r="B19" s="3">
         <v>9.0909090909090898E-2</v>
@@ -1057,9 +1057,9 @@
       <c r="F19" s="3"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>0.89664776133428525</v>
+        <v>0.91458071656097095</v>
       </c>
       <c r="B20" s="3">
         <v>8.6956521739130502E-2</v>
@@ -1070,9 +1070,9 @@
       <c r="F20" s="3"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>0.89868559715550056</v>
+        <v>0.9166593090986106</v>
       </c>
       <c r="B21" s="3">
         <v>8.3333333333333398E-2</v>
@@ -1083,9 +1083,9 @@
       <c r="F21" s="3"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>0.90054622986182631</v>
+        <v>0.91855715445906283</v>
       </c>
       <c r="B22" s="3">
         <v>0.08</v>
@@ -1096,9 +1096,9 @@
       <c r="F22" s="3"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>0.90225180984262465</v>
+        <v>0.92029684603947715</v>
       </c>
       <c r="B23" s="3">
         <v>7.69230769230769E-2</v>
@@ -1109,9 +1109,9 @@
       <c r="F23" s="3"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>0.90382094342495989</v>
+        <v>0.92189736229345909</v>
       </c>
       <c r="B24" s="3">
         <v>7.4074074074074098E-2</v>
@@ -1122,9 +1122,9 @@
       <c r="F24" s="3"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>0.90526937442403888</v>
+        <v>0.92337476191251966</v>
       </c>
       <c r="B25" s="3">
         <v>7.1428571428571397E-2</v>
@@ -1135,9 +1135,9 @@
       <c r="F25" s="3"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>0.90661051423799999</v>
+        <v>0.92474272452275996</v>
       </c>
       <c r="B26" s="3">
         <v>6.8965517241379296E-2</v>
@@ -1148,9 +1148,9 @@
       <c r="F26" s="3"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>0.90785585835096394</v>
+        <v>0.92601297551798323</v>
       </c>
       <c r="B27" s="3">
         <v>6.6666666666666693E-2</v>
@@ -1161,9 +1161,9 @@
       <c r="F27" s="3"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>0.90901531666303415</v>
+        <v>0.92719562299629488</v>
       </c>
       <c r="B28" s="3">
         <v>6.4516129032258104E-2</v>
@@ -1174,9 +1174,9 @@
       <c r="F28" s="3"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>0.91009747775430017</v>
+        <v>0.92829942730938619</v>
       </c>
       <c r="B29" s="3">
         <v>6.25E-2</v>
@@ -1187,9 +1187,9 @@
       <c r="F29" s="3"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>0.91110982200096768</v>
+        <v>0.92933201844098701</v>
       </c>
       <c r="B30" s="3">
         <v>6.0606060606060601E-2</v>
@@ -1200,9 +1200,9 @@
       <c r="F30" s="3"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>0.91205889473221879</v>
+        <v>0.93030007262686321</v>
       </c>
       <c r="B31" s="3">
         <v>5.8823529411764698E-2</v>
@@ -1213,9 +1213,9 @@
       <c r="F31" s="3"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>0.91295044790400015</v>
+        <v>0.93120945686208012</v>
       </c>
       <c r="B32" s="3">
         <v>5.7142857142857197E-2</v>
@@ -1226,9 +1226,9 @@
       <c r="F32" s="3"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>0.91378955677155904</v>
+        <v>0.93206534790699025</v>
       </c>
       <c r="B33" s="3">
         <v>5.5555555555555601E-2</v>
@@ -1239,9 +1239,9 @@
       <c r="F33" s="3"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>0.91458071656097095</v>
+        <v>0.93287233089219035</v>
       </c>
       <c r="B34" s="3">
         <v>5.4054054054054099E-2</v>
@@ -1252,9 +1252,9 @@
       <c r="F34" s="3"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>0.91532792302874977</v>
+        <v>0.93363448148932482</v>
       </c>
       <c r="B35" s="3">
         <v>5.2631578947368501E-2</v>
@@ -1265,9 +1265,9 @@
       <c r="F35" s="3"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>0.91603473995772977</v>
+        <v>0.93435543475688443</v>
       </c>
       <c r="B36" s="3">
         <v>5.1282051282051301E-2</v>
@@ -1278,9 +1278,9 @@
       <c r="F36" s="3"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>0.91670435599571076</v>
+        <v>0.93503844311562501</v>
       </c>
       <c r="B37" s="3">
         <v>0.05</v>
@@ -1291,9 +1291,9 @@
       <c r="F37" s="3"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>0.91733963274969188</v>
+        <v>0.93568642540468572</v>
       </c>
       <c r="B38" s="3">
         <v>4.8780487804878099E-2</v>
@@ -1304,9 +1304,9 @@
       <c r="F38" s="3"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>0.9179431456659749</v>
+        <v>0.93630200857929446</v>
       </c>
       <c r="B39" s="3">
         <v>4.76190476190477E-2</v>
@@ -1317,9 +1317,9 @@
       <c r="F39" s="3"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>0.9185172189278048</v>
+        <v>0.93688756330636092</v>
       </c>
       <c r="B40" s="3">
         <v>4.6511627906976702E-2</v>
@@ -1330,9 +1330,9 @@
       <c r="F40" s="3"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>0.91906395536764274</v>
+        <v>0.93744523447499561</v>
       </c>
       <c r="B41" s="3">
         <v>4.54545454545454E-2</v>
@@ -1343,9 +1343,9 @@
       <c r="F41" s="3"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>0.91958526220562831</v>
+        <v>0.93797696744974091</v>
       </c>
       <c r="B42" s="3">
         <v>4.4444444444444398E-2</v>
@@ -1356,9 +1356,9 @@
       <c r="F42" s="3"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>0.92008287327824956</v>
+        <v>0.93848453074381455</v>
       </c>
       <c r="B43" s="3">
         <v>4.3478260869565202E-2</v>
@@ -1369,9 +1369,9 @@
       <c r="F43" s="3"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>0.92055836830320015</v>
+        <v>0.93896953566926422</v>
       </c>
       <c r="B44" s="3">
         <v>4.2553191489361701E-2</v>
@@ -1382,9 +1382,9 @@
       <c r="F44" s="3"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>0.92101318963141265</v>
+        <v>0.93943345342404094</v>
       </c>
       <c r="B45" s="3">
         <v>4.1666666666666602E-2</v>
@@ -1395,9 +1395,9 @@
       <c r="F45" s="3"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>0.92144865686055299</v>
+        <v>0.93987762999776403</v>
       </c>
       <c r="B46" s="3">
         <v>4.0816326530612297E-2</v>
@@ -1408,9 +1408,9 @@
       <c r="F46" s="3"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>0.92186597962181283</v>
+        <v>0.94030329921424904</v>
       </c>
       <c r="B47" s="3">
         <v>0.04</v>
@@ -1421,9 +1421,9 @@
       <c r="F47" s="3"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>0.92226626880097973</v>
+        <v>0.94071159417699934</v>
       </c>
       <c r="B48" s="3">
         <v>0.04</v>
@@ -1434,9 +1434,9 @@
       <c r="F48" s="3"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>0.92265054641297994</v>
+        <v>0.94110355734123952</v>
       </c>
       <c r="B49" s="3">
         <v>3.6949999999999983E-2</v>
@@ -1447,9 +1447,9 @@
       <c r="F49" s="3"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>0.92265996121447413</v>
+        <v>0.94111316043876359</v>
       </c>
       <c r="B50" s="3">
         <v>3.6949999999999983E-2</v>
@@ -1460,10 +1460,10 @@
       <c r="F50" s="3"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
     </row>
   </sheetData>
@@ -1479,7 +1479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1491,7 +1491,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
